--- a/common/file_templates/i_list_g_phone.xlsx
+++ b/common/file_templates/i_list_g_phone.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="56">
   <si>
     <t>Федеральное государственное бюджетное образовательное учреждение высшего образования</t>
   </si>
@@ -194,6 +194,12 @@
   </si>
   <si>
     <t>[application.specialization_name]</t>
+  </si>
+  <si>
+    <t>Подача документа об образовании</t>
+  </si>
+  <si>
+    <t>[application.original]</t>
   </si>
 </sst>
 </file>
@@ -682,10 +688,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:M177"/>
+  <dimension ref="A1:N177"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -970,7 +976,7 @@
       <c r="L16" s="1"/>
       <c r="M16" s="1"/>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="2" t="s">
         <v>39</v>
@@ -989,7 +995,7 @@
       <c r="L17" s="1"/>
       <c r="M17" s="1"/>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="2" t="s">
         <v>45</v>
@@ -1008,7 +1014,7 @@
       <c r="L18" s="1"/>
       <c r="M18" s="1"/>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="2" t="s">
         <v>47</v>
@@ -1027,7 +1033,7 @@
       <c r="L19" s="1"/>
       <c r="M19" s="1"/>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="2"/>
       <c r="C20" s="15"/>
@@ -1042,7 +1048,7 @@
       <c r="L20" s="1"/>
       <c r="M20" s="1"/>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="13"/>
       <c r="C21" s="1"/>
@@ -1057,7 +1063,7 @@
       <c r="L21" s="1"/>
       <c r="M21" s="1"/>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
@@ -1072,7 +1078,7 @@
       <c r="L22" s="1"/>
       <c r="M22" s="1"/>
     </row>
-    <row r="23" spans="1:13" ht="68.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:14" ht="68.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="9" t="s">
         <v>16</v>
       </c>
@@ -1085,35 +1091,38 @@
       <c r="D23" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="E23" s="9" t="s">
+      <c r="E23" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="F23" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="F23" s="9" t="s">
+      <c r="G23" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="G23" s="9" t="s">
+      <c r="H23" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="H23" s="9" t="s">
+      <c r="I23" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="I23" s="9" t="s">
+      <c r="J23" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="J23" s="9" t="s">
+      <c r="K23" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="K23" s="9" t="s">
+      <c r="L23" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="L23" s="9" t="s">
+      <c r="M23" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="M23" s="9" t="s">
+      <c r="N23" s="9" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="24" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="6" t="s">
         <v>40</v>
       </c>
@@ -1127,34 +1136,37 @@
         <v>53</v>
       </c>
       <c r="E24" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="F24" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="F24" s="6" t="s">
+      <c r="G24" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="G24" s="6" t="s">
+      <c r="H24" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="H24" s="6" t="s">
+      <c r="I24" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="I24" s="6" t="s">
+      <c r="J24" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="J24" s="6" t="s">
+      <c r="K24" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="K24" s="6" t="s">
+      <c r="L24" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="L24" s="6" t="s">
+      <c r="M24" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="M24" s="6" t="s">
+      <c r="N24" s="6" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
@@ -1169,17 +1181,17 @@
       <c r="L25" s="1"/>
       <c r="M25" s="1"/>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A26" s="7" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A27" s="7" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
@@ -1194,7 +1206,7 @@
       <c r="L28" s="1"/>
       <c r="M28" s="1"/>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="8"/>
       <c r="C29" s="1"/>
@@ -1209,7 +1221,7 @@
       <c r="L29" s="1"/>
       <c r="M29" s="1"/>
     </row>
-    <row r="30" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="18"/>
       <c r="C30" s="16"/>
@@ -1224,7 +1236,7 @@
       <c r="L30" s="1"/>
       <c r="M30" s="1"/>
     </row>
-    <row r="31" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
       <c r="B31" s="14"/>
       <c r="C31" s="17"/>
@@ -1239,7 +1251,7 @@
       <c r="L31" s="1"/>
       <c r="M31" s="1"/>
     </row>
-    <row r="32" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="14"/>
       <c r="C32" s="17"/>
